--- a/corrected_answers.xlsx
+++ b/corrected_answers.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">The character is this movie is very emotional and good hearted. He was very emotional over finding out about his son and was proud that he was an intelligent little boy unlike him.</t>
   </si>
   <si>
-    <t xml:space="preserve">The character is this movie is very emotional and good hearted. He wass very emotional over finding out about his son and wass proud that he wass an intelligent little boy unlike hi'm.</t>
+    <t xml:space="preserve">the character is this movie is very emotional and good hearted. he wass very emotional over finding out about his son and wass proud that he wass an intelligent little boy unlike hi'm.</t>
   </si>
   <si>
     <t xml:space="preserve">7MCQuX0w_Gs-ubE69Dr90WaC7ZFFrSJfuYd-JdhgmiAr8MfXLIQWERyS1GStKIXO</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">I was confused and mad at first that he left the other man outside all by himself. but my thoughts about him changed when he went back to him after it started raining.</t>
   </si>
   <si>
-    <t xml:space="preserve">I wass confused and mad at first that he left the other man outside all by hi'mself. but my thoughts about hi'm changed when he went back to hi'm after it started raining.</t>
+    <t xml:space="preserve">i wass confused and mad at first that he left the other man outside all by hi'mself. but my thoughts about hi'm changed when he went back to hi'm after it started raining.</t>
   </si>
   <si>
     <t xml:space="preserve">7TKFy33uZmLWQtdHwAmhbz1tovWBJt-Q50N-3MwltvIoSoNovM8q7vu2nSPm7CPS</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">He seems to be very motivated and is on the hunt for something specific. He seems like someone I would not want to get in the way off as he is on a mission.</t>
   </si>
   <si>
-    <t xml:space="preserve">He seems to be very motvated and is on the hunt for somethingg specific. He seems like someone I would not wasnt to get in the wasy off as he is on a mission.</t>
+    <t xml:space="preserve">he seems to be very motvated and is on the hunt for somethingg specific. he seems like someone i would not wasnt to get in the wasy off as he is on a mission.</t>
   </si>
   <si>
     <t xml:space="preserve">DeiuR-pFqf5SPcUg_XVKyQxcyjW2gB5f2nfZzas0v-r3cvvSnRG4922t-BwVze6b</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">He seems like a very serious man who is on a mission. He was very methodical in looking through the desk before taking a folder of documents.</t>
   </si>
   <si>
-    <t xml:space="preserve">He seems like a very serious man who is on a mission. He wass very methodical in lookingg through the desk before taking a folder of documents.</t>
+    <t xml:space="preserve">he seems like a very serious man who is on a mission. he wass very methodical in lookingg through the desk before taking a folder of documents.</t>
   </si>
   <si>
     <t xml:space="preserve">tMQY3VWeqBNPBEXyXRf8bPj2mqOSDbu2P0Bkj2uaxaN9CVsKX-IqbyrdeQsPFdNH</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Inquisitive because of the way she seems to be looking for something, but, not completely aware of her surroundings. She seems a big careless as it looked like the bag she was carrying was not closed all the way. It looked like one of the latches was open.</t>
   </si>
   <si>
-    <t xml:space="preserve">Inquisitve because of the wasy she seems to be lookingg for somethingg, but, not completely awasre of her surroundings. She seems a big careless as it looked like the bag she wass carrying wass not closed all the wasy. It looked like one of the latches wass open.</t>
+    <t xml:space="preserve">inquisitve because of the wasy she seems to be lookingg for somethingg, but, not completely awasre of her surroundings. she seems a big careless as it looked like the bag she wass carrying wass not closed all the wasy. it looked like one of the latches wass open.</t>
   </si>
   <si>
     <t xml:space="preserve">AYfR-Zd4pJo7vF3Ru6k6IIFBViGrRYwjiGRv62n5rPD2KRYztpRZdhDGMG8w-8af</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">I could tell that she was doing some shady stuff and maybe put herself in a bad situation but i dont know all the details about her life and i dont think that she deserved anything that happened to her. For all i know she had kids at home who needed to eat. A sad story.</t>
   </si>
   <si>
-    <t xml:space="preserve">I could tell that she wass doingng some shady stuff and maybe put herself in a bad situation but i don't know all the details about her life and i don't think that she deserved anything that happened to her. For all i know she had kids at home who needed to eat. A sad story.</t>
+    <t xml:space="preserve">i could tell that she wass doingng some shady stuff and maybe put herself in a bad situation but i don't know all the details about her life and i don't think that she deserved anything that happened to her. for all i know she had kids at home who needed to eat. a sad story.</t>
   </si>
   <si>
     <t xml:space="preserve">2rtkZ-gxQSCbpRguxoePmp17pKloVNOPckTQ9_9AVq110hYfkU6uwaX0ZuWoDVGx</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">He is really a sweet character. He shows concern for his son's well-being. He is kind of vulnerable. His son's mother was concerned for him and seemed to want to make sure he is okay. The vulnerability might be because of his intellectual disability, but I am not sure.</t>
   </si>
   <si>
-    <t xml:space="preserve">He is really a sweet character. He shows concern for his son's well-being. He is kind of vulnerable. His son's mother wass concerned for hi'm and seemed to wasnt to make sure he is okay. The vulnerability might be because of his intellectual disability, but I am not sure.</t>
+    <t xml:space="preserve">he is really a sweet character. he shows concern for his son's well-being. he is kind of vulnerable. his son's mother wass concerned for hi'm and seemed to wasnt to make sure he is okay. the vulnerability might be because of his intellectual disability, but i am not sure.</t>
   </si>
   <si>
     <t xml:space="preserve">ESYTNy3BvOlgHBzgwsyM8czMmmEgmgpZTXFfTzIQEupZ8mgsdc3wPN8nwFX0Vt80</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">He was confused he was humble but he realize he made a decision about decision even if he was trying to do it with good or bad intentions with the fact that he recognized what he did wrong and came back for the boy Troll and he had morals but he seemed like he was in conflict with himself</t>
   </si>
   <si>
-    <t xml:space="preserve">He wass confused he wass humble but he realize he made a decision about decision even if he wass trying to do it with good or bad intentions with the fact that he recognized what he did wrong and came back for the boy Troll and he had morals but he seemed like he wass in conflict with hi'mself</t>
+    <t xml:space="preserve">he wass confused he wass humble but he realize he made a decision about decision even if he wass trying to do it with good or bad intentions with the fact that he recognized what he did wrong and came back for the boy troll and he had morals but he seemed like he wass in conflict with hi'mself</t>
   </si>
   <si>
     <t xml:space="preserve">plLlZhtkh7R4QlebjVAY74TjJxDtylwee1L15jOfLZwn_P7Zni5w7sw-L7XyO_Bk</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">This woman is acting weird. She is holding a box and walking nervously as if she is looking out for something or someone.</t>
   </si>
   <si>
-    <t xml:space="preserve">This woman is acting weird. She is holding a box and waslking nervously as if she is lookingg out for somethingg or someone.</t>
+    <t xml:space="preserve">this woman is acting weird. she is holding a box and waslking nervously as if she is lookingg out for somethingg or someone.</t>
   </si>
   <si>
     <t xml:space="preserve">Ei1eD_AlJQCVG67G7OcS_1PRWE2UdujA7aSCJUD8i-cWNFQe83F3YBMYJRO_qLlw</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">She was white, ad sort of an a-line haircut, modestly attractive, carrying a box...pretty unremarkable. Seemed like she had to go somewhere.</t>
   </si>
   <si>
-    <t xml:space="preserve">She wass white, ad sort of an a-line haircut, modestly attractve, carrying a box...pretty unremarkable. Seemed like she had to go somewhere.</t>
+    <t xml:space="preserve">she wass white, ad sort of an a-line haircut, modestly attractve, carrying a box...pretty unremarkable. seemed like she had to go somewhere.</t>
   </si>
   <si>
     <t xml:space="preserve">FHWQq8N0XeaMDQUJrM4mW5M3uiu32JrmoEBwvI9xfD-uMNSt_c_6vytfAICA3Iot</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">I still remember her being whiny and clingy. I don't think she loved Leon like a father, but actually as a confused young adult being in love with someone. Still no favorable impression of her.</t>
   </si>
   <si>
-    <t xml:space="preserve">I still remember her being whiny and clingy. I don't think she loved Leon like a father, but actually as a confused young adult being in love with someone. Still no favorable i'mpression of her.</t>
+    <t xml:space="preserve">i still remember her being whiny and clingy. i don't think she loved leon like a father, but actually as a confused young adult being in love with someone. still no favorable i'mpression of her.</t>
   </si>
   <si>
     <t xml:space="preserve">Ug73hBFGPpap6GGnfZny_Avg4kxPmpwopsqC13-3JCl7UKb1eBizBUqSMbK1jZfO</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">She was annoying and assumed probably the source of the conflict of the film due to her naive stupidity and immature obstinance.</t>
   </si>
   <si>
-    <t xml:space="preserve">She wass annoying and assumed probably the source of the conflict of the film due to her naive stupidity and i'mmature obstin ance.</t>
+    <t xml:space="preserve">she wass annoying and assumed probably the source of the conflict of the film due to her naive stupidity and i'mmature obstin ance.</t>
   </si>
   <si>
     <t xml:space="preserve">6JUDogx7iTxUb2cVNswO-dDZWKJKZ-MSNT7WNZRn69P03iOZRthu9w1sdHPpWYOS</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">My impression has not really changed. At first he seems like a terrible person, leaving an autistic kid at the side of the road in the rain. He returns, which is admirable, but it was his fault for leaving him in the first place. So though he redeems his actions, it's barely redemption.</t>
   </si>
   <si>
-    <t xml:space="preserve">My i'mpression has not really changed. At first he seems like a terrible person, leaving an autisticic kid at the side of the road in the rain. He returns, which is admirable, but it wass his fault for leaving hi'm in the first place. So though he redeems his actions, it's barely redemption.</t>
+    <t xml:space="preserve">my i'mpression has not really changed. at first he seems like a terrible person, leaving an autisticic kid at the side of the road in the rain. he returns, which is admirable, but it wass his fault for leaving hi'm in the first place. so though he redeems his actions, it's barely redemption.</t>
   </si>
   <si>
     <t xml:space="preserve">D-Zeu_EZt6EtMiGfXLdbUkOMCg7Dt3d-TIKmkusC6DF_7-K4z6zmPMYGTG-vF3OX</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">There was nothing special about her. To be honest, if I were a person shopping in that mall, there would be nothing at all that would even draw my attention to her.</t>
   </si>
   <si>
-    <t xml:space="preserve">There wass nothing special about her. To be honest, if I were a person shopping in that mall, there would be nothing at all that would even draw my attention to her.</t>
+    <t xml:space="preserve">there wass nothing special about her. to be honest, if i were a person shopping in that mall, there would be nothing at all that would even draw my attention to her.</t>
   </si>
   <si>
     <t xml:space="preserve">eF6lMuhBdqTAUgbICwvtwTKmM2BlhlJlaz6ih_IyXLwGj7b_nmyrMs_MtAnYsQ9o</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">She was alert and paying attention to her surroundings like she was looking for something specific.</t>
   </si>
   <si>
-    <t xml:space="preserve">She wass alert and paying attention to her surroundings like she wass lookingg for somethingg specific.</t>
+    <t xml:space="preserve">she wass alert and paying attention to her surroundings like she wass lookingg for somethingg specific.</t>
   </si>
   <si>
     <t xml:space="preserve">wX6XZM7-2mDWQPxyz5P2F-dD3co2eOyYAErJGmF7V0U3O1P4U0cYo-vTtFll1CDj</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">She seemed really nervous about something but, at the same time, very determined.</t>
   </si>
   <si>
-    <t xml:space="preserve">She seemed really nervous about somethingg but, at the same ti'me, very determined.</t>
+    <t xml:space="preserve">she seemed really nervous about somethingg but, at the same ti'me, very determined.</t>
   </si>
   <si>
     <t xml:space="preserve">NSFeueiefsHoK3c1DD4zN8w7pTSEk4r5cIO3j6ekUNRjE3nKWJHsk_QxZMDPe5ch</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">The girl seems like a nice girl on a mission. She does not angrily pace to the door and car but seems to walk confidentially to her destination. She walks to a car gets in the car, walks up to a door, and knocks on the door.</t>
   </si>
   <si>
-    <t xml:space="preserve">The girl seems like a nice girl on a mission. She does not angrily pace to the door and car but seems to waslk confidentially to her destin ation. She waslks to a car gets in the car, waslks up to a door, and knocks on the door.</t>
+    <t xml:space="preserve">the girl seems like a nice girl on a mission. she does not angrily pace to the door and car but seems to waslk confidentially to her destin ation. she waslks to a car gets in the car, waslks up to a door, and knocks on the door.</t>
   </si>
   <si>
     <t xml:space="preserve">_g9acHO0P8eQqgcqmTLOa74oqrHYhh1yuXA0DTDAXPNdOI95-kqkq9IZIwFLAn8v</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">He seemed like an observant man who was very distressed about the woman.  He tried to be strong for her, and seemed very sad at the end of the clip.</t>
   </si>
   <si>
-    <t xml:space="preserve">He seemed like an observant man who wass very distressed about the woman.  He tried to be strong for her, and seemed very sad at the end of the clip.</t>
+    <t xml:space="preserve">he seemed like an observant man who wass very distressed about the woman.  he tried to be strong for her, and seemed very sad at the end of the clip.</t>
   </si>
   <si>
     <t xml:space="preserve">uT8TkKIvCCspH5PVVRAqBhkOqVZWwzJGDKcTf0qsbvqFewgITGq9uI4u6X4e1KnC</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">She's a sweet little girl caught in a bad situation. She's terrified by the assault on her home but her first thought is for her friend. She is terrified he's going to sacrifice himself for her and she doesn't want to go on on alone. At the same time she's not ready to die. She's terrified for this other person more than she is herself. She's kind and loving even though she's scared.</t>
   </si>
   <si>
-    <t xml:space="preserve">She's a sweet little girl caught in a bad situation. She's terrified by the assault on her home but her first thought is for her friend. She is terrified he's going to sacrifice hi'mself for her and she doesn't wasnt to go on on alone. At the same ti'me she's not ready to die. She's terrified for this other person more than she is herself. She's kind and loving even though she's scared.</t>
+    <t xml:space="preserve">she's a sweet little girl caught in a bad situation. she's terrified by the assault on her home but her first thought is for her friend. she is terrified he's going to sacrifice hi'mself for her and she doesn't wasnt to go on on alone. at the same ti'me she's not ready to die. she's terrified for this other person more than she is herself. she's kind and loving even though she's scared.</t>
   </si>
   <si>
     <t xml:space="preserve">pI5KyyVoZOxknJDGZ8nwmELJ-gXLlEGDYZZ_tBKwJNuHX6eIA3nAArbhl5v_I4tr</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">Forrest was suprised to find he is  a father.</t>
   </si>
   <si>
-    <t xml:space="preserve">Forrest wass surprised to find he is  a father.</t>
+    <t xml:space="preserve">forrest wass surprised to find he is  a father.</t>
   </si>
   <si>
     <t xml:space="preserve">RH2wgY_bvYKnl40YGCQv5U8uj4gHFdpF-ipCSeYBN9ArTB9Qa0jCBs8_YTOGwOVA</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">I thought leaving the kid behind was awful but i do understand why he did it</t>
   </si>
   <si>
-    <t xml:space="preserve">I thought leaving the kid behind wass awful but i do understand why he did it</t>
+    <t xml:space="preserve">i thought leaving the kid behind wass awful but i do understand why he did it</t>
   </si>
   <si>
     <t xml:space="preserve">oDTFcKL_b_j9OnuTMrN0IOuBcmURsYtYOnxTTqLKUPLS13wMUml1H-ztGZc9Vipx</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">Harry's a bit of a cowardly jerk, because he contemplates abandoning his disabled son in an unfamiliar area, in the rain, to get rid of him, because the kid is a burden and an embarrassment. However, he's not a total monster, and has some love for his son, so he relents and doesn't do it and they embrace.</t>
   </si>
   <si>
-    <t xml:space="preserve">Harry's a bit of a cowasrdly jerk, because he contemplates abandoning his disabled son in an unfamiliar area, in the rain, to get rid of hi'm, because the kid is a burden and an embarrassment. However, he's not a total monster, and has some love for his son, so he relents and doesn't do it and they embrace.</t>
+    <t xml:space="preserve">harry's a bit of a cowasrdly jerk, because he contemplates abandoning his disabled son in an unfamiliar area, in the rain, to get rid of hi'm, because the kid is a burden and an embarrassment. however, he's not a total monster, and has some love for his son, so he relents and doesn't do it and they embrace.</t>
   </si>
   <si>
     <t xml:space="preserve">qV0KnrDolXldI_fWzgSG3Z0CXTMa5YOTbiM_t4eUUga4QEk1v6-Aln3R6sQSIkho</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">She seem like she was on some kind of Journey she had see motivated and something that she had to accomplish she seems strong-minded persistent and self charge</t>
   </si>
   <si>
-    <t xml:space="preserve">She seem like she wass on some kind of Journey she had see motvated and somethingg that she had to accomplish she seems strong-minded persistent and self charge</t>
+    <t xml:space="preserve">she seem like she wass on some kind of journey she had see motvated and somethingg that she had to accomplish she seems strong-minded persistent and self charge</t>
   </si>
   <si>
     <t xml:space="preserve">l5IIqlCL_IvZKDpvIAKhKfHS_kbRt3-GOoqIe4E6H0S6yHGeCcJUTdZxwhsmD3X6</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">A man who is really sad about the girl he loved dying. He tried to help her but couldn't get there in time. He cared about her a lot.</t>
   </si>
   <si>
-    <t xml:space="preserve">A man who is really sad about the girl he loved dying. He tried to help her but couldn't get there in ti'me. He cared about her a lot.</t>
+    <t xml:space="preserve">a man who is really sad about the girl he loved dying. he tried to help her but couldn't get there in ti'me. he cared about her a lot.</t>
   </si>
   <si>
     <t xml:space="preserve">2piKjjI5NPbqJZnKY6l2YC2l1SY-RYA609S1QVcGFOgI3XeGRaouXQsc5Iijzkff</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">A hired prostitute that was confronted by three men who proceeded to assault her as she tried to leave.</t>
   </si>
   <si>
-    <t xml:space="preserve">A hired prostitute that wass confronted by three men who proceeded to assault her as she tried to leave.</t>
+    <t xml:space="preserve">a hired prostitute that wass confronted by three men who proceeded to assault her as she tried to leave.</t>
   </si>
 </sst>
 </file>
